--- a/assignment_overview.xlsx
+++ b/assignment_overview.xlsx
@@ -1,35 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vipul Newaskar\Desktop\WinRT19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+  <si>
+    <t>WinRT Assignments</t>
+  </si>
   <si>
     <t>Assignment#</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>Uploaded</t>
@@ -43,31 +39,23 @@
   <si>
     <t>Accepted</t>
   </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>WinRT Assignments using IDE</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,18 +63,177 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +242,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -107,18 +266,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -128,55 +461,342 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -225,7 +845,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -260,7 +880,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -434,232 +1054,239 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="5.57142857142857" customWidth="1"/>
+    <col min="5" max="5" width="10.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="27.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="10" t="s">
+    <row r="2" ht="18.75" spans="3:6">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="18.75" spans="3:6">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="H4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="H6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="H7" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="4">
         <v>9</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>9.1</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>9.2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>9.3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>9.4</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="E16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>9.5</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>9.6</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="2">
+      <c r="E18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="4">
         <v>10</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="9">
+        <v>11</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:F2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/assignment_overview.xlsx
+++ b/assignment_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>WinRT Assignments</t>
   </si>
@@ -31,13 +31,49 @@
     <t>Uploaded</t>
   </si>
   <si>
+    <t>Essay</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
+    <t>First Application</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
     <t>Rejected</t>
   </si>
   <si>
+    <t>MessageBox</t>
+  </si>
+  <si>
     <t>Accepted</t>
+  </si>
+  <si>
+    <t>SplashScreen</t>
+  </si>
+  <si>
+    <t>Pledge</t>
+  </si>
+  <si>
+    <t>ColorChange</t>
+  </si>
+  <si>
+    <t>Stripes</t>
+  </si>
+  <si>
+    <t>DLL &amp; DLL Client</t>
+  </si>
+  <si>
+    <t>MultiThreading</t>
+  </si>
+  <si>
+    <t>ClassFactory</t>
+  </si>
+  <si>
+    <t>Containment</t>
   </si>
 </sst>
 </file>
@@ -45,12 +81,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,26 +125,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,6 +151,75 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -129,107 +227,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,12 +301,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,6 +427,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,7 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,133 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +500,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,166 +601,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1089,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:I20"/>
+  <dimension ref="C2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F2"/>
@@ -1103,9 +1132,11 @@
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="H4" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -1117,7 +1148,9 @@
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1131,9 +1164,11 @@
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H6" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" s="12"/>
     </row>
@@ -1145,9 +1180,11 @@
       <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I7" s="13"/>
     </row>
@@ -1159,7 +1196,9 @@
       <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="4">
@@ -1167,9 +1206,11 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="4">
@@ -1179,7 +1220,9 @@
       <c r="E10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="4">
@@ -1189,7 +1232,9 @@
       <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="4">
@@ -1199,7 +1244,9 @@
       <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="4"/>
@@ -1269,17 +1316,81 @@
       <c r="E19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="9">
+      <c r="C20" s="4">
         <v>11</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="9">
+        <v>12</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
